--- a/NewDrugsReport/Content/ExcelTemplate/案件統計暨審查表.xlsx
+++ b/NewDrugsReport/Content/ExcelTemplate/案件統計暨審查表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="附表2-審查表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>個案管理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輔導教官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,39 +172,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陸軍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生輔組長</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>獎勵人員(軍職)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>獎勵原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F123123123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U123456789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空軍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -223,35 +187,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>○○大學</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>107年第2次各級學校完成春暉小組輔導期程案件軍職人員獎勵推薦名冊(大專用-範例)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大學</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王大華</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>張三成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王六輔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -263,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,85 +415,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,11 +777,11 @@
   </sheetPr>
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -868,185 +801,185 @@
     <col min="21" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="90.75" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="25" t="s">
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="V3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1069,7 +1002,7 @@
       <c r="U6"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1092,7 +1025,7 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1115,7 +1048,7 @@
       <c r="U8"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1138,7 +1071,7 @@
       <c r="U9"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1161,7 +1094,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1184,7 +1117,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1207,7 +1140,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1230,7 +1163,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A14"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1253,7 +1186,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1276,7 +1209,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1299,7 +1232,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1322,7 +1255,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A18"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1345,7 +1278,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1368,7 +1301,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1391,7 +1324,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1414,10 +1347,10 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:22" ht="30" customHeight="1"/>
+    <row r="23" spans="1:22" ht="30" customHeight="1"/>
+    <row r="24" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:22" ht="93" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:V5"/>
@@ -1448,11 +1381,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -1462,167 +1395,99 @@
     <col min="10" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1"/>
+    <row r="7" spans="1:11" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
